--- a/etc/260.xlsx
+++ b/etc/260.xlsx
@@ -28099,7 +28099,7 @@
         <v>96</v>
       </c>
       <c r="G16" s="35">
-        <v>12275.99</v>
+        <v>2487.72</v>
       </c>
       <c r="H16" t="s" s="39">
         <v>179</v>
@@ -28122,7 +28122,7 @@
         <v>96</v>
       </c>
       <c r="G17" s="35">
-        <v>2487.72</v>
+        <v>12275.99</v>
       </c>
       <c r="H17" s="38"/>
       <c r="I17" s="38"/>
